--- a/Template/03_02_Modelos_DBSCAN_df_score.xlsx
+++ b/Template/03_02_Modelos_DBSCAN_df_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="17">
   <si>
     <t>Algor.</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>eps</t>
+  </si>
+  <si>
+    <t>clusters</t>
   </si>
   <si>
     <t>silhouette</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,19 +453,22 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -471,27 +477,30 @@
         <v>0.1</v>
       </c>
       <c r="G2">
+        <v>68</v>
+      </c>
+      <c r="H2">
         <v>-0.410455016319441</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.346165789381685</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6.836147367407445</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -500,27 +509,30 @@
         <v>0.2</v>
       </c>
       <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
         <v>-0.1626933544646521</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.377485853625393</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10.5007849477812</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -529,27 +541,30 @@
         <v>0.3</v>
       </c>
       <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
         <v>0.1274082155124193</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.501382917982629</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18.69340429241438</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -558,27 +573,30 @@
         <v>0.4</v>
       </c>
       <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>0.4630642577871565</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.676942971907066</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>36.02267364582747</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -587,27 +605,30 @@
         <v>0.5</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>0.4875975707126021</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.852468609554278</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>21.57552338754552</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -616,27 +637,30 @@
         <v>0.6</v>
       </c>
       <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>0.5408174190373769</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.9870994712380168</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21.24051599222708</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -645,27 +669,30 @@
         <v>0.7</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>0.5886756306664737</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.8031055883413818</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>14.80271796261015</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -674,27 +701,30 @@
         <v>0.8</v>
       </c>
       <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
         <v>0.5886756306664737</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.8031055883413818</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14.80271796261015</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -703,27 +733,30 @@
         <v>0.9</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>0.5830877272913106</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.3093934912014275</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8.705533704357096</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -732,27 +765,30 @@
         <v>0.1</v>
       </c>
       <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
         <v>-0.5441066873128874</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.954070999485315</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.1590012114599363</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -761,27 +797,30 @@
         <v>0.2</v>
       </c>
       <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12">
         <v>-0.5442666747257506</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.935880087141418</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.2082869399640769</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -790,27 +829,30 @@
         <v>0.3</v>
       </c>
       <c r="G13">
+        <v>57</v>
+      </c>
+      <c r="H13">
         <v>-0.513278870531484</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.97985799440743</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.2448070258379905</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -819,27 +861,30 @@
         <v>0.4</v>
       </c>
       <c r="G14">
+        <v>63</v>
+      </c>
+      <c r="H14">
         <v>-0.4869510321034148</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.961478058082773</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.4940623775289673</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -848,27 +893,30 @@
         <v>0.5</v>
       </c>
       <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
         <v>-0.4841163684814658</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.909702761879645</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9268885048480993</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -877,27 +925,30 @@
         <v>0.6</v>
       </c>
       <c r="G16">
+        <v>52</v>
+      </c>
+      <c r="H16">
         <v>-0.4302231420307323</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.875002516304533</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.175692233585222</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>9</v>
@@ -906,27 +957,30 @@
         <v>0.7</v>
       </c>
       <c r="G17">
+        <v>52</v>
+      </c>
+      <c r="H17">
         <v>-0.3794429284038703</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.792241397904683</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.561368359426485</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -935,27 +989,30 @@
         <v>0.8</v>
       </c>
       <c r="G18">
+        <v>58</v>
+      </c>
+      <c r="H18">
         <v>-0.3493116898670655</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.763356622434848</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.733546006343023</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -964,27 +1021,30 @@
         <v>0.9</v>
       </c>
       <c r="G19">
+        <v>58</v>
+      </c>
+      <c r="H19">
         <v>-0.3490474579465926</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.792534863057294</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2.018933251235919</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>15</v>
@@ -993,27 +1053,30 @@
         <v>3</v>
       </c>
       <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
         <v>0.06243596076874782</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.867410195146443</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20.11710946552856</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>15</v>
@@ -1022,27 +1085,30 @@
         <v>3.1</v>
       </c>
       <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
         <v>0.1000907847291501</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.9736960064164</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>25.85613023126229</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -1051,27 +1117,30 @@
         <v>3.2</v>
       </c>
       <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
         <v>0.169919870083483</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.082092232900599</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>28.71201932206351</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -1080,27 +1149,30 @@
         <v>3.3</v>
       </c>
       <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
         <v>0.1792715907853078</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.191303279210137</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>32.54821964738402</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -1109,27 +1181,30 @@
         <v>3.4</v>
       </c>
       <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
         <v>0.1967663985752336</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.423076415366754</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>42.32467358651331</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>15</v>
@@ -1138,27 +1213,30 @@
         <v>3.5</v>
       </c>
       <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
         <v>0.2000732158220742</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.465033285044222</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>43.07134138080606</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -1167,27 +1245,30 @@
         <v>3.6</v>
       </c>
       <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
         <v>0.2123676487955088</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.588200717305179</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>51.70759368162236</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>15</v>
@@ -1196,27 +1277,30 @@
         <v>3.7</v>
       </c>
       <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
         <v>0.2139295331047236</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2.593936259349468</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>52.39747944061785</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -1225,27 +1309,30 @@
         <v>3.8</v>
       </c>
       <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
         <v>0.2555149745514451</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.759622125658794</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>65.07302513010407</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>15</v>
@@ -1254,27 +1341,30 @@
         <v>3.9</v>
       </c>
       <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
         <v>0.2555904470079276</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.769703903991969</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>65.15261290084399</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -1283,27 +1373,30 @@
         <v>4</v>
       </c>
       <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
         <v>0.2622323165982449</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.916362740998025</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>67.31787769949349</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>15</v>
@@ -1312,27 +1405,30 @@
         <v>4.1</v>
       </c>
       <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
         <v>0.2626313750921859</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3.008148592916244</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>67.58947452781291</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>15</v>
@@ -1341,27 +1437,30 @@
         <v>4.2</v>
       </c>
       <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
         <v>0.2650179199480509</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.982342345850935</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>68.14839928424422</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>15</v>
@@ -1370,27 +1469,30 @@
         <v>4.3</v>
       </c>
       <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
         <v>0.2671998726028945</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.975191157680896</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>68.38029782385546</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>15</v>
@@ -1399,27 +1501,30 @@
         <v>4.4</v>
       </c>
       <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
         <v>0.2841739330980277</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.827716075289015</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>57.96963281143282</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>15</v>
@@ -1428,27 +1533,30 @@
         <v>4.5</v>
       </c>
       <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
         <v>0.3515229610335836</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>3.017573964566573</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>73.62740535451059</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>15</v>
@@ -1457,27 +1565,30 @@
         <v>4.6</v>
       </c>
       <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
         <v>0.3542411254343132</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.743252072012745</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>75.23490951341519</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>15</v>
@@ -1486,27 +1597,30 @@
         <v>4.7</v>
       </c>
       <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
         <v>0.3563000021779166</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2.569825148390598</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>76.3007867027368</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -1515,27 +1629,30 @@
         <v>4.8</v>
       </c>
       <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
         <v>0.3563000021779166</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.569825148390598</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>76.3007867027368</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -1544,27 +1661,30 @@
         <v>4.9</v>
       </c>
       <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
         <v>0.3560895604182675</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.705683969998951</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>75.5871706936462</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -1573,27 +1693,30 @@
         <v>5</v>
       </c>
       <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
         <v>0.3560895604182675</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.705683969998951</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>75.5871706936462</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>15</v>
@@ -1602,27 +1725,30 @@
         <v>5.1</v>
       </c>
       <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
         <v>0.3560895604182675</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2.705683969998951</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>75.5871706936462</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>15</v>
@@ -1631,27 +1757,30 @@
         <v>5.2</v>
       </c>
       <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
         <v>0.3560895604182675</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.705683969998951</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>75.5871706936462</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <v>15</v>
@@ -1660,27 +1789,30 @@
         <v>5.3</v>
       </c>
       <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>0.217112871163631</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>15</v>
@@ -1689,27 +1821,30 @@
         <v>5.4</v>
       </c>
       <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.217112871163631</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <v>15</v>
@@ -1718,27 +1853,30 @@
         <v>5.5</v>
       </c>
       <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.217112871163631</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>15</v>
@@ -1747,27 +1885,30 @@
         <v>5.6</v>
       </c>
       <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.217112871163631</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>15</v>
@@ -1776,27 +1917,30 @@
         <v>5.7</v>
       </c>
       <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.217112871163631</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>15</v>
@@ -1805,27 +1949,30 @@
         <v>5.8</v>
       </c>
       <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.217112871163631</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>15</v>
@@ -1834,27 +1981,30 @@
         <v>5.9</v>
       </c>
       <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
         <v>0.6978327491716696</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>0.217112871163631</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>19.29462517934523</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1863,27 +2013,30 @@
         <v>0.1</v>
       </c>
       <c r="G50">
+        <v>27</v>
+      </c>
+      <c r="H50">
         <v>-0.7457867149744309</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1.145857032981975</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2.428115686947882</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1892,27 +2045,30 @@
         <v>0.2</v>
       </c>
       <c r="G51">
+        <v>78</v>
+      </c>
+      <c r="H51">
         <v>-0.7196870218699069</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.291202731338308</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>2.212224629310334</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -1921,27 +2077,30 @@
         <v>0.3</v>
       </c>
       <c r="G52">
+        <v>154</v>
+      </c>
+      <c r="H52">
         <v>-0.5793545316789538</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1.296861519316469</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2.510036362625077</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1950,27 +2109,30 @@
         <v>0.4</v>
       </c>
       <c r="G53">
+        <v>243</v>
+      </c>
+      <c r="H53">
         <v>-0.3948577571401901</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1.346440948017222</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>2.80688506264924</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1979,27 +2141,30 @@
         <v>0.5</v>
       </c>
       <c r="G54">
+        <v>324</v>
+      </c>
+      <c r="H54">
         <v>-0.1908698279973782</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1.362422406814638</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>3.487298372666807</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2008,27 +2173,30 @@
         <v>0.6</v>
       </c>
       <c r="G55">
+        <v>362</v>
+      </c>
+      <c r="H55">
         <v>-0.02470352445130875</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>1.37980237176318</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>4.977311839746404</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2037,27 +2205,30 @@
         <v>0.7</v>
       </c>
       <c r="G56">
+        <v>388</v>
+      </c>
+      <c r="H56">
         <v>0.1210362081455419</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1.404195883215</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>8.134841082626448</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2066,27 +2237,30 @@
         <v>0.8</v>
       </c>
       <c r="G57">
+        <v>347</v>
+      </c>
+      <c r="H57">
         <v>0.1896596365193285</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>1.479322234044104</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>15.22272787119372</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2095,27 +2269,30 @@
         <v>0.9</v>
       </c>
       <c r="G58">
+        <v>293</v>
+      </c>
+      <c r="H58">
         <v>0.2209029795844114</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>1.481020551390522</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>30.7699969870944</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2124,27 +2301,30 @@
         <v>0.1</v>
       </c>
       <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
         <v>-0.7105350558214466</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>0.932825696992525</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2.632746950836737</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2153,27 +2333,30 @@
         <v>0.2</v>
       </c>
       <c r="G60">
+        <v>78</v>
+      </c>
+      <c r="H60">
         <v>-0.7168573133939884</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1.328626266991423</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2.464017683715077</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2182,27 +2365,30 @@
         <v>0.3</v>
       </c>
       <c r="G61">
+        <v>160</v>
+      </c>
+      <c r="H61">
         <v>-0.5659220012763815</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>1.569690254358293</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>2.512895186656709</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2211,27 +2397,30 @@
         <v>0.4</v>
       </c>
       <c r="G62">
+        <v>242</v>
+      </c>
+      <c r="H62">
         <v>-0.400381111736389</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>1.596397013278394</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>2.804368168879431</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2240,27 +2429,30 @@
         <v>0.5</v>
       </c>
       <c r="G63">
+        <v>326</v>
+      </c>
+      <c r="H63">
         <v>-0.2109903943768959</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>1.645619543050371</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>3.466172970982135</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2269,27 +2461,30 @@
         <v>0.6</v>
       </c>
       <c r="G64">
+        <v>367</v>
+      </c>
+      <c r="H64">
         <v>-0.05221731754767959</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>1.602790154040123</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>4.956809673412369</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2298,27 +2493,30 @@
         <v>0.7</v>
       </c>
       <c r="G65">
+        <v>397</v>
+      </c>
+      <c r="H65">
         <v>0.08082938494456107</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1.520287799667835</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>7.317094598628934</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2327,27 +2525,30 @@
         <v>0.8</v>
       </c>
       <c r="G66">
+        <v>392</v>
+      </c>
+      <c r="H66">
         <v>0.164985594707162</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1.638982883454458</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>11.21864422467486</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2356,27 +2557,30 @@
         <v>0.9</v>
       </c>
       <c r="G67">
+        <v>366</v>
+      </c>
+      <c r="H67">
         <v>0.2222102105458248</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>1.583431991510709</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>19.76368246262451</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2385,27 +2589,30 @@
         <v>3</v>
       </c>
       <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68">
         <v>-0.1593976263580966</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.7183356037412354</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>296.919159178118</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2414,27 +2621,30 @@
         <v>3.1</v>
       </c>
       <c r="G69">
+        <v>13</v>
+      </c>
+      <c r="H69">
         <v>-0.2166149776805852</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>0.7161865784766343</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>274.7343246320618</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2443,27 +2653,30 @@
         <v>3.2</v>
       </c>
       <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
         <v>-0.1263919825660188</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.6901319619624529</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>329.0799612672538</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2472,27 +2685,30 @@
         <v>3.3</v>
       </c>
       <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71">
         <v>-0.1263919825660188</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>0.6901319619624529</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>329.0799612672538</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2501,27 +2717,30 @@
         <v>3.4</v>
       </c>
       <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
         <v>-0.0277950879235239</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.6721529596619918</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>363.7637772476951</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2530,27 +2749,30 @@
         <v>3.5</v>
       </c>
       <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
         <v>-0.0277950879235239</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.6721529596619918</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>363.7637772476951</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2559,27 +2781,30 @@
         <v>3.6</v>
       </c>
       <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
         <v>-0.0277950879235239</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>0.6721529596619918</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>363.7637772476951</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2588,27 +2813,30 @@
         <v>3.7</v>
       </c>
       <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75">
         <v>-0.0277950879235239</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>0.6721529596619918</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>363.7637772476951</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2617,27 +2845,30 @@
         <v>3.8</v>
       </c>
       <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76">
         <v>-0.0277950879235239</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.6721529596619918</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>363.7637772476951</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2646,27 +2877,30 @@
         <v>3.9</v>
       </c>
       <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77">
         <v>-0.05291402566401878</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.6049347376143875</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>344.3506579153682</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2675,27 +2909,30 @@
         <v>4</v>
       </c>
       <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78">
         <v>-0.05291402566401878</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.6049347376143875</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>344.3506579153682</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2704,27 +2941,30 @@
         <v>4.1</v>
       </c>
       <c r="G79">
+        <v>7</v>
+      </c>
+      <c r="H79">
         <v>-0.05291402566401878</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.6049347376143875</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>344.3506579153682</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2733,27 +2973,30 @@
         <v>4.2</v>
       </c>
       <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80">
         <v>-0.05291402566401878</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>0.6049347376143875</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>344.3506579153682</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2762,27 +3005,30 @@
         <v>4.3</v>
       </c>
       <c r="G81">
+        <v>7</v>
+      </c>
+      <c r="H81">
         <v>-0.05291402566401878</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>0.6049347376143875</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>344.3506579153682</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2791,27 +3037,30 @@
         <v>4.4</v>
       </c>
       <c r="G82">
+        <v>7</v>
+      </c>
+      <c r="H82">
         <v>-0.05291402566401878</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>0.6049347376143875</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>344.3506579153682</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2820,27 +3069,30 @@
         <v>4.5</v>
       </c>
       <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
         <v>-0.04691411909434721</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.6455361509275467</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>412.2973928221999</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2849,27 +3101,30 @@
         <v>4.6</v>
       </c>
       <c r="G84">
+        <v>6</v>
+      </c>
+      <c r="H84">
         <v>-0.04691411909434721</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>0.6455361509275467</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>412.2973928221999</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2878,27 +3133,30 @@
         <v>4.7</v>
       </c>
       <c r="G85">
+        <v>6</v>
+      </c>
+      <c r="H85">
         <v>-0.04691411909434721</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>0.6455361509275467</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>412.2973928221999</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2907,27 +3165,30 @@
         <v>4.8</v>
       </c>
       <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86">
         <v>0.1361805992268815</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.4884472718306002</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>514.4366846226269</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2936,27 +3197,30 @@
         <v>4.9</v>
       </c>
       <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
         <v>0.1361805992268815</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.4884472718306002</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>514.4366846226269</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2965,27 +3229,30 @@
         <v>5</v>
       </c>
       <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2994,27 +3261,30 @@
         <v>5.1</v>
       </c>
       <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -3023,27 +3293,30 @@
         <v>5.2</v>
       </c>
       <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -3052,27 +3325,30 @@
         <v>5.3</v>
       </c>
       <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>24</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -3081,27 +3357,30 @@
         <v>5.4</v>
       </c>
       <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -3110,27 +3389,30 @@
         <v>5.5</v>
       </c>
       <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -3139,27 +3421,30 @@
         <v>5.6</v>
       </c>
       <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>27</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -3168,27 +3453,30 @@
         <v>5.7</v>
       </c>
       <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -3197,27 +3485,30 @@
         <v>5.8</v>
       </c>
       <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3226,27 +3517,30 @@
         <v>5.9</v>
       </c>
       <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
         <v>0.2871407180443242</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.4864395387970283</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>677.1051421964219</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -3255,27 +3549,30 @@
         <v>0.1</v>
       </c>
       <c r="G98">
+        <v>232</v>
+      </c>
+      <c r="H98">
         <v>0.150018263090707</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>1.357212289580996</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>43.12230848102136</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -3284,27 +3581,30 @@
         <v>0.2</v>
       </c>
       <c r="G99">
+        <v>50</v>
+      </c>
+      <c r="H99">
         <v>-0.0474992873637495</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>1.98456736421756</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>454.4907626549116</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -3313,27 +3613,30 @@
         <v>0.3</v>
       </c>
       <c r="G100">
+        <v>12</v>
+      </c>
+      <c r="H100">
         <v>-0.1986040125099663</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>1.762766419908219</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>246.8957676880389</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3342,27 +3645,30 @@
         <v>0.4</v>
       </c>
       <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="H101">
         <v>-0.2752033184458103</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>1.145819087995252</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>6.311490437679487</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -3371,27 +3677,30 @@
         <v>0.5</v>
       </c>
       <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
         <v>-0.06870901640032552</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>1.035906661244314</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>2.539361186950011</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -3400,27 +3709,30 @@
         <v>0.1</v>
       </c>
       <c r="G103">
+        <v>242</v>
+      </c>
+      <c r="H103">
         <v>0.1759596128513923</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>1.601438241082969</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>31.68598520698738</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3429,27 +3741,30 @@
         <v>0.2</v>
       </c>
       <c r="G104">
+        <v>28</v>
+      </c>
+      <c r="H104">
         <v>-0.3626221128413822</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>1.762364325311744</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>58.81714519270956</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -3458,27 +3773,30 @@
         <v>0.3</v>
       </c>
       <c r="G105">
+        <v>7</v>
+      </c>
+      <c r="H105">
         <v>-0.1958534479648239</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>2.481508599146852</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>63.19050870691048</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>2</v>
@@ -3487,27 +3805,30 @@
         <v>0.4</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
         <v>-0.1479126334707114</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>1.245305962003786</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>60.22049627525031</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -3516,27 +3837,30 @@
         <v>0.5</v>
       </c>
       <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
         <v>0.1883084857561973</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.7107340779280999</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>120.1128414243265</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3545,27 +3869,30 @@
         <v>0.1</v>
       </c>
       <c r="G108">
+        <v>183</v>
+      </c>
+      <c r="H108">
         <v>0.2668588452816654</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>1.62803032274056</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>131.9246390856164</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -3574,27 +3901,30 @@
         <v>0.2</v>
       </c>
       <c r="G109">
+        <v>19</v>
+      </c>
+      <c r="H109">
         <v>0.123228730281004</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>1.110849539523714</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>848.7446199891147</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -3603,27 +3933,30 @@
         <v>0.3</v>
       </c>
       <c r="G110">
+        <v>12</v>
+      </c>
+      <c r="H110">
         <v>0.1901669436120902</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>0.862680699837501</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>1195.180279797117</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -3632,27 +3965,30 @@
         <v>0.4</v>
       </c>
       <c r="G111">
+        <v>6</v>
+      </c>
+      <c r="H111">
         <v>0.4326055239286389</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.4543606342852277</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>1097.023785434038</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -3661,27 +3997,30 @@
         <v>0.5</v>
       </c>
       <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112">
         <v>0.5644627067135645</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>0.3307634727856162</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>794.5571445242622</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -3690,27 +4029,30 @@
         <v>0.6</v>
       </c>
       <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113">
         <v>0.5644627067135645</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>0.3307634727856162</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>794.5571445242622</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -3719,27 +4061,30 @@
         <v>0.7</v>
       </c>
       <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114">
         <v>0.5644627067135645</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>0.3307634727856162</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>794.5571445242622</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -3748,27 +4093,30 @@
         <v>0.8</v>
       </c>
       <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115">
         <v>0.5644627067135645</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>0.3307634727856162</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>794.5571445242622</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -3777,27 +4125,30 @@
         <v>0.9</v>
       </c>
       <c r="G116">
+        <v>4</v>
+      </c>
+      <c r="H116">
         <v>0.5621494301256063</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>0.3659362494707434</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>1056.65917087345</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>17</v>
@@ -3806,27 +4157,30 @@
         <v>0.1</v>
       </c>
       <c r="G117">
+        <v>83</v>
+      </c>
+      <c r="H117">
         <v>-0.3365566727165538</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>1.498731240788059</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>5.763934152223826</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>17</v>
@@ -3835,27 +4189,30 @@
         <v>0.2</v>
       </c>
       <c r="G118">
+        <v>25</v>
+      </c>
+      <c r="H118">
         <v>-0.2356234149562435</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>1.558950822219353</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>7.624947281376095</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>17</v>
@@ -3864,27 +4221,30 @@
         <v>0.3</v>
       </c>
       <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="H119">
         <v>0.04584455451721721</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>1.773111372906766</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>11.55915710237846</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>17</v>
@@ -3893,27 +4253,30 @@
         <v>0.4</v>
       </c>
       <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
         <v>0.3357371566626737</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>2.705042599273211</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>21.12463407245264</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>17</v>
@@ -3922,27 +4285,30 @@
         <v>0.5</v>
       </c>
       <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
         <v>0.4961173315533111</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>2.770937957515966</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>29.3896875587273</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>17</v>
@@ -3951,27 +4317,30 @@
         <v>0.6</v>
       </c>
       <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
         <v>0.5508990017556551</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>2.045021506958291</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>30.85266419089481</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>17</v>
@@ -3980,27 +4349,30 @@
         <v>0.7</v>
       </c>
       <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123">
         <v>0.568025354387281</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>1.517331556613314</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>16.26526570657288</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>17</v>
@@ -4009,27 +4381,30 @@
         <v>0.8</v>
       </c>
       <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
         <v>0.5843491770756996</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>1.675485487054489</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>16.13002456812923</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>17</v>
@@ -4038,27 +4413,30 @@
         <v>0.9</v>
       </c>
       <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
         <v>0.5866853332055896</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>1.978326136208706</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>11.48997481320994</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>17</v>
@@ -4067,27 +4445,30 @@
         <v>0.5</v>
       </c>
       <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
         <v>-0.4525714867535399</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>2.125828051007191</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>0.1539178981745111</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>17</v>
@@ -4096,27 +4477,30 @@
         <v>0.6</v>
       </c>
       <c r="G127">
+        <v>8</v>
+      </c>
+      <c r="H127">
         <v>-0.477766313228733</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>1.897319582560002</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>0.2109552351149169</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>17</v>
@@ -4125,27 +4509,30 @@
         <v>0.7</v>
       </c>
       <c r="G128">
+        <v>18</v>
+      </c>
+      <c r="H128">
         <v>-0.4936627600975559</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>1.941788708643057</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>0.2171066306776609</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>17</v>
@@ -4154,27 +4541,30 @@
         <v>0.8</v>
       </c>
       <c r="G129">
+        <v>25</v>
+      </c>
+      <c r="H129">
         <v>-0.4987115642489805</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>1.966659830147901</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>0.2520302246392886</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>17</v>
@@ -4183,27 +4573,30 @@
         <v>0.9</v>
       </c>
       <c r="G130">
+        <v>42</v>
+      </c>
+      <c r="H130">
         <v>-0.4819137149234419</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>2.032088481444802</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>0.2706946861476764</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>17</v>
@@ -4212,27 +4605,30 @@
         <v>1</v>
       </c>
       <c r="G131">
+        <v>43</v>
+      </c>
+      <c r="H131">
         <v>-0.4710470802966312</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>2.056985107989357</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>0.3946550863581006</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>17</v>
@@ -4241,27 +4637,30 @@
         <v>1.1</v>
       </c>
       <c r="G132">
+        <v>43</v>
+      </c>
+      <c r="H132">
         <v>-0.4690357632599542</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>2.006135739214236</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>0.5365294381870538</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>17</v>
@@ -4270,27 +4669,30 @@
         <v>1.2</v>
       </c>
       <c r="G133">
+        <v>48</v>
+      </c>
+      <c r="H133">
         <v>-0.4475918088629241</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>1.959376611376768</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>0.7396408505322384</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>17</v>
@@ -4299,27 +4701,30 @@
         <v>1.3</v>
       </c>
       <c r="G134">
+        <v>37</v>
+      </c>
+      <c r="H134">
         <v>-0.4367499073497945</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>1.946906456304009</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>1.14861359976806</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>17</v>
@@ -4328,27 +4733,30 @@
         <v>1.4</v>
       </c>
       <c r="G135">
+        <v>46</v>
+      </c>
+      <c r="H135">
         <v>-0.4282118979446551</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>1.960722697616703</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>1.154865331642096</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>17</v>
@@ -4357,27 +4765,30 @@
         <v>1.5</v>
       </c>
       <c r="G136">
+        <v>33</v>
+      </c>
+      <c r="H136">
         <v>-0.4033151790810012</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>1.935997301274831</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>1.93514299921191</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>17</v>
@@ -4386,27 +4797,30 @@
         <v>1.6</v>
       </c>
       <c r="G137">
+        <v>31</v>
+      </c>
+      <c r="H137">
         <v>-0.3693932207190663</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>1.841883473828478</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>2.320703712711722</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>17</v>
@@ -4415,27 +4829,30 @@
         <v>1.7</v>
       </c>
       <c r="G138">
+        <v>36</v>
+      </c>
+      <c r="H138">
         <v>-0.3715210131878185</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>1.912805070003739</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>2.219025998251601</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>17</v>
@@ -4444,27 +4861,30 @@
         <v>1.8</v>
       </c>
       <c r="G139">
+        <v>46</v>
+      </c>
+      <c r="H139">
         <v>-0.3464380621478324</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>1.854564053404368</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>2.133552206178379</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>17</v>
@@ -4473,27 +4893,30 @@
         <v>1.9</v>
       </c>
       <c r="G140">
+        <v>44</v>
+      </c>
+      <c r="H140">
         <v>-0.3092059391130852</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>1.845811251492709</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>2.480880891490628</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>17</v>
@@ -4502,27 +4925,30 @@
         <v>2</v>
       </c>
       <c r="G141">
+        <v>40</v>
+      </c>
+      <c r="H141">
         <v>-0.3139504973088153</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>1.825369374157422</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>3.158384265543733</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>17</v>
@@ -4531,27 +4957,30 @@
         <v>2.1</v>
       </c>
       <c r="G142">
+        <v>33</v>
+      </c>
+      <c r="H142">
         <v>-0.2982831425686024</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>1.811058511141651</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>4.154053206107982</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>17</v>
@@ -4560,27 +4989,30 @@
         <v>2.2</v>
       </c>
       <c r="G143">
+        <v>35</v>
+      </c>
+      <c r="H143">
         <v>-0.2468987550075856</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>1.811206274570883</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>4.534410774885274</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>17</v>
@@ -4589,27 +5021,30 @@
         <v>2.3</v>
       </c>
       <c r="G144">
+        <v>33</v>
+      </c>
+      <c r="H144">
         <v>-0.1867765279180489</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>1.755334440130058</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>5.398083381912761</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>17</v>
@@ -4618,27 +5053,30 @@
         <v>2.4</v>
       </c>
       <c r="G145">
+        <v>36</v>
+      </c>
+      <c r="H145">
         <v>-0.1709714714519307</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>1.742820305401616</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>5.173074207703198</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>17</v>
@@ -4647,27 +5085,30 @@
         <v>2.5</v>
       </c>
       <c r="G146">
+        <v>35</v>
+      </c>
+      <c r="H146">
         <v>-0.1788964142705229</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>1.721567511753458</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>5.719663778158421</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>17</v>
@@ -4676,27 +5117,30 @@
         <v>2.6</v>
       </c>
       <c r="G147">
+        <v>29</v>
+      </c>
+      <c r="H147">
         <v>-0.1233744218086511</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>1.65859157495763</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>7.356571457531526</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>17</v>
@@ -4705,27 +5149,30 @@
         <v>2.7</v>
       </c>
       <c r="G148">
+        <v>28</v>
+      </c>
+      <c r="H148">
         <v>-0.09099674882145155</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>1.622078484943998</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>8.144143521518767</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>17</v>
@@ -4734,27 +5181,30 @@
         <v>2.8</v>
       </c>
       <c r="G149">
+        <v>28</v>
+      </c>
+      <c r="H149">
         <v>-0.09645520850433915</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>1.606465848062008</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>8.436460262357038</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>17</v>
@@ -4763,27 +5213,30 @@
         <v>2.9</v>
       </c>
       <c r="G150">
+        <v>27</v>
+      </c>
+      <c r="H150">
         <v>-0.09481949586626365</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>1.640276336274173</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>9.530126247787475</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>17</v>
@@ -4792,27 +5245,30 @@
         <v>3</v>
       </c>
       <c r="G151">
+        <v>22</v>
+      </c>
+      <c r="H151">
         <v>0.03186066124308726</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>1.754816109853481</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>21.81504043620731</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>17</v>
@@ -4821,27 +5277,30 @@
         <v>3.1</v>
       </c>
       <c r="G152">
+        <v>15</v>
+      </c>
+      <c r="H152">
         <v>0.05637179941227902</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>1.84382554325619</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>16.91349105306448</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>17</v>
@@ -4850,27 +5309,30 @@
         <v>3.2</v>
       </c>
       <c r="G153">
+        <v>15</v>
+      </c>
+      <c r="H153">
         <v>0.05754481158091543</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>1.849469591397613</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>17.58293555037252</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>17</v>
@@ -4879,27 +5341,30 @@
         <v>3.3</v>
       </c>
       <c r="G154">
+        <v>12</v>
+      </c>
+      <c r="H154">
         <v>0.1167789956161509</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>1.939695115764559</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>22.17181467637638</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>17</v>
@@ -4908,27 +5373,30 @@
         <v>3.4</v>
       </c>
       <c r="G155">
+        <v>11</v>
+      </c>
+      <c r="H155">
         <v>0.1762974572075469</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>1.99085185909769</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>24.9523839629001</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>17</v>
@@ -4937,27 +5405,30 @@
         <v>3.5</v>
       </c>
       <c r="G156">
+        <v>11</v>
+      </c>
+      <c r="H156">
         <v>0.1674873523452765</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>2.072095582146694</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>25.38798049794263</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>17</v>
@@ -4966,27 +5437,30 @@
         <v>3.6</v>
       </c>
       <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157">
         <v>0.1925725324291571</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>2.447705687971213</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>41.10204173830267</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>17</v>
@@ -4995,27 +5469,30 @@
         <v>3.7</v>
       </c>
       <c r="G158">
+        <v>6</v>
+      </c>
+      <c r="H158">
         <v>0.2025259982333841</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>2.608837201280239</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>48.59314105095214</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>17</v>
@@ -5024,27 +5501,30 @@
         <v>3.8</v>
       </c>
       <c r="G159">
+        <v>5</v>
+      </c>
+      <c r="H159">
         <v>0.2442872977408795</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>2.747976601004273</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>60.65629529130928</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>17</v>
@@ -5053,27 +5533,30 @@
         <v>3.9</v>
       </c>
       <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160">
         <v>0.2450140911107995</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>2.793123031223483</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>61.47356793061483</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E161">
         <v>17</v>
@@ -5082,27 +5565,30 @@
         <v>4</v>
       </c>
       <c r="G161">
+        <v>5</v>
+      </c>
+      <c r="H161">
         <v>0.2495529248687587</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>2.817003389578217</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>62.20759260508633</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E162">
         <v>17</v>
@@ -5111,27 +5597,30 @@
         <v>4.1</v>
       </c>
       <c r="G162">
+        <v>5</v>
+      </c>
+      <c r="H162">
         <v>0.2512177152417653</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>2.839437180139589</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>63.13527121734207</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>17</v>
@@ -5140,27 +5629,30 @@
         <v>4.2</v>
       </c>
       <c r="G163">
+        <v>5</v>
+      </c>
+      <c r="H163">
         <v>0.2537112557340999</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>2.84653797329445</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>63.94083666867166</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E164">
         <v>17</v>
@@ -5169,27 +5661,30 @@
         <v>4.3</v>
       </c>
       <c r="G164">
+        <v>5</v>
+      </c>
+      <c r="H164">
         <v>0.2539099789956099</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>2.826627078114819</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>64.33494863261609</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E165">
         <v>17</v>
@@ -5198,27 +5693,30 @@
         <v>4.4</v>
       </c>
       <c r="G165">
+        <v>5</v>
+      </c>
+      <c r="H165">
         <v>0.2587048936026632</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>2.712034702882378</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>65.80320826677499</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E166">
         <v>17</v>
@@ -5227,27 +5725,30 @@
         <v>4.5</v>
       </c>
       <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
         <v>0.3407751981969543</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>2.992845956922185</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>70.38148724944067</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E167">
         <v>17</v>
@@ -5256,27 +5757,30 @@
         <v>4.6</v>
       </c>
       <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
         <v>0.3407751981969543</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>2.992845956922185</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>70.38148724944067</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E168">
         <v>17</v>
@@ -5285,27 +5789,30 @@
         <v>4.7</v>
       </c>
       <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
         <v>0.3407751981969543</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>2.992845956922185</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>70.38148724944067</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E169">
         <v>17</v>
@@ -5314,27 +5821,30 @@
         <v>4.8</v>
       </c>
       <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
         <v>0.3436726928702381</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>2.649956339046117</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>71.94529172640358</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E170">
         <v>17</v>
@@ -5343,27 +5853,30 @@
         <v>4.9</v>
       </c>
       <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
         <v>0.3436726928702381</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>2.649956339046117</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>71.94529172640358</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E171">
         <v>17</v>
@@ -5372,27 +5885,30 @@
         <v>5</v>
       </c>
       <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
         <v>0.3434149561923769</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>2.910988337931094</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>70.89037762736419</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E172">
         <v>17</v>
@@ -5401,27 +5917,30 @@
         <v>5.1</v>
       </c>
       <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172">
         <v>0.345325942681151</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>2.696991389542065</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>72.13508402165417</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E173">
         <v>17</v>
@@ -5430,27 +5949,30 @@
         <v>5.2</v>
       </c>
       <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
         <v>0.345325942681151</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>2.696991389542065</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>72.13508402165417</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E174">
         <v>17</v>
@@ -5459,27 +5981,30 @@
         <v>5.3</v>
       </c>
       <c r="G174">
+        <v>2</v>
+      </c>
+      <c r="H174">
         <v>0.6235215847496852</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>1.447491805000489</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>12.00355040970255</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E175">
         <v>17</v>
@@ -5488,27 +6013,30 @@
         <v>5.4</v>
       </c>
       <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
         <v>0.6909746808775862</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>0.2222995323293668</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>18.51807624298699</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E176">
         <v>17</v>
@@ -5517,27 +6045,30 @@
         <v>5.5</v>
       </c>
       <c r="G176">
+        <v>2</v>
+      </c>
+      <c r="H176">
         <v>0.6909746808775862</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>0.2222995323293668</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>18.51807624298699</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E177">
         <v>17</v>
@@ -5546,27 +6077,30 @@
         <v>5.6</v>
       </c>
       <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177">
         <v>0.6909746808775862</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>0.2222995323293668</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>18.51807624298699</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>27</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>17</v>
@@ -5575,27 +6109,30 @@
         <v>5.7</v>
       </c>
       <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178">
         <v>0.6909746808775862</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>0.2222995323293668</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>18.51807624298699</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E179">
         <v>17</v>
@@ -5604,27 +6141,30 @@
         <v>5.8</v>
       </c>
       <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179">
         <v>0.6909746808775862</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>0.2222995323293668</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>18.51807624298699</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E180">
         <v>17</v>
@@ -5633,12 +6173,15 @@
         <v>5.9</v>
       </c>
       <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
         <v>0.6909746808775862</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>0.2222995323293668</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>18.51807624298699</v>
       </c>
     </row>
